--- a/static/hojas_vida/CALIDAD_3ML1GF1.xlsx
+++ b/static/hojas_vida/CALIDAD_3ML1GF1.xlsx
@@ -2567,9 +2567,17 @@
       </c>
     </row>
     <row r="34" ht="162.75" customHeight="1" s="43">
-      <c r="A34" s="166" t="n"/>
+      <c r="A34" s="166" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
       <c r="B34" s="135" t="n"/>
-      <c r="C34" s="167" t="n"/>
+      <c r="C34" s="167" t="inlineStr">
+        <is>
+          <t>opcion 4</t>
+        </is>
+      </c>
       <c r="D34" s="134" t="n"/>
       <c r="E34" s="134" t="n"/>
       <c r="F34" s="134" t="n"/>
@@ -2579,7 +2587,11 @@
       <c r="J34" s="134" t="n"/>
       <c r="K34" s="134" t="n"/>
       <c r="L34" s="135" t="n"/>
-      <c r="M34" s="29" t="n"/>
+      <c r="M34" s="29" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="168" customHeight="1" s="43">
       <c r="A35" s="17" t="n"/>

--- a/static/hojas_vida/CALIDAD_3ML1GF1.xlsx
+++ b/static/hojas_vida/CALIDAD_3ML1GF1.xlsx
@@ -2567,9 +2567,17 @@
       </c>
     </row>
     <row r="34" ht="162.75" customHeight="1" s="43">
-      <c r="A34" s="166" t="n"/>
+      <c r="A34" s="166" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
       <c r="B34" s="135" t="n"/>
-      <c r="C34" s="167" t="n"/>
+      <c r="C34" s="167" t="inlineStr">
+        <is>
+          <t>opcion 4</t>
+        </is>
+      </c>
       <c r="D34" s="134" t="n"/>
       <c r="E34" s="134" t="n"/>
       <c r="F34" s="134" t="n"/>
@@ -2579,12 +2587,24 @@
       <c r="J34" s="134" t="n"/>
       <c r="K34" s="134" t="n"/>
       <c r="L34" s="135" t="n"/>
-      <c r="M34" s="29" t="n"/>
+      <c r="M34" s="29" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="168" customHeight="1" s="43">
-      <c r="A35" s="17" t="n"/>
+      <c r="A35" s="17" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
       <c r="B35" s="135" t="n"/>
-      <c r="C35" s="17" t="n"/>
+      <c r="C35" s="17" t="inlineStr">
+        <is>
+          <t>clon 333333</t>
+        </is>
+      </c>
       <c r="D35" s="134" t="n"/>
       <c r="E35" s="134" t="n"/>
       <c r="F35" s="134" t="n"/>
@@ -2594,7 +2614,11 @@
       <c r="J35" s="134" t="n"/>
       <c r="K35" s="134" t="n"/>
       <c r="L35" s="135" t="n"/>
-      <c r="M35" s="17" t="n"/>
+      <c r="M35" s="17" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="166.5" customHeight="1" s="43">
       <c r="A36" s="17" t="n"/>

--- a/static/hojas_vida/CALIDAD_3ML1GF1.xlsx
+++ b/static/hojas_vida/CALIDAD_3ML1GF1.xlsx
@@ -2621,9 +2621,17 @@
       </c>
     </row>
     <row r="36" ht="166.5" customHeight="1" s="43">
-      <c r="A36" s="17" t="n"/>
+      <c r="A36" s="17" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
       <c r="B36" s="135" t="n"/>
-      <c r="C36" s="17" t="n"/>
+      <c r="C36" s="17" t="inlineStr">
+        <is>
+          <t>hhhhhhh</t>
+        </is>
+      </c>
       <c r="D36" s="134" t="n"/>
       <c r="E36" s="134" t="n"/>
       <c r="F36" s="134" t="n"/>
@@ -2633,7 +2641,11 @@
       <c r="J36" s="134" t="n"/>
       <c r="K36" s="134" t="n"/>
       <c r="L36" s="135" t="n"/>
-      <c r="M36" s="17" t="n"/>
+      <c r="M36" s="17" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="168.75" customHeight="1" s="43">
       <c r="A37" s="17" t="n"/>
